--- a/viagem/doc/Consultas.xlsx
+++ b/viagem/doc/Consultas.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20055" windowHeight="7950"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="20055" windowHeight="7950" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="40">
   <si>
     <t>Programado</t>
   </si>
@@ -88,6 +88,54 @@
   </si>
   <si>
     <t>AGTL</t>
+  </si>
+  <si>
+    <t>Previsto</t>
+  </si>
+  <si>
+    <t>Pontualidade últimos 7 dias</t>
+  </si>
+  <si>
+    <t>Data de chegada do veículo em relação ao acordado entre transportador e motorista</t>
+  </si>
+  <si>
+    <t>Data e hora de chegada do veículo em relação ao planejado pelo motorista</t>
+  </si>
+  <si>
+    <t>Atrasos</t>
+  </si>
+  <si>
+    <t>Próximas movimentações</t>
+  </si>
+  <si>
+    <t>Chegadas esperadas</t>
+  </si>
+  <si>
+    <t>Antecipações</t>
+  </si>
+  <si>
+    <t>Chegadas registradas</t>
+  </si>
+  <si>
+    <t>Viagem</t>
+  </si>
+  <si>
+    <t>Tomador</t>
+  </si>
+  <si>
+    <t>Placa</t>
+  </si>
+  <si>
+    <t>Motorista</t>
+  </si>
+  <si>
+    <t>Acordada</t>
+  </si>
+  <si>
+    <t>Prevista</t>
+  </si>
+  <si>
+    <t>Chegada</t>
   </si>
 </sst>
 </file>
@@ -103,7 +151,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -113,6 +161,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -129,12 +183,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -431,7 +486,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="C1:J27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
@@ -939,12 +994,149 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:O16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P4" sqref="P4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.7109375" customWidth="1"/>
+    <col min="12" max="12" width="16" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15">
+      <c r="A1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="B4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="B5" s="1">
+        <v>480</v>
+      </c>
+      <c r="C5" s="1">
+        <v>21</v>
+      </c>
+      <c r="D5" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="B9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="B10" s="1">
+        <v>480</v>
+      </c>
+      <c r="C10" s="1">
+        <v>19</v>
+      </c>
+      <c r="D10" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="A13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="C14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="3"/>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="B15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="B16" s="1">
+        <v>350</v>
+      </c>
+      <c r="C16" s="1">
+        <v>35</v>
+      </c>
+      <c r="D16" s="1">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>

--- a/viagem/doc/Consultas.xlsx
+++ b/viagem/doc/Consultas.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20055" windowHeight="7950" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="20055" windowHeight="7950" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="53">
   <si>
     <t>Programado</t>
   </si>
@@ -93,9 +93,6 @@
     <t>Previsto</t>
   </si>
   <si>
-    <t>Pontualidade últimos 7 dias</t>
-  </si>
-  <si>
     <t>Data de chegada do veículo em relação ao acordado entre transportador e motorista</t>
   </si>
   <si>
@@ -136,6 +133,48 @@
   </si>
   <si>
     <t>Chegada</t>
+  </si>
+  <si>
+    <t>Pontualidade</t>
+  </si>
+  <si>
+    <t>19 atrasos</t>
+  </si>
+  <si>
+    <t>120 pontuais</t>
+  </si>
+  <si>
+    <t>5 antecipações</t>
+  </si>
+  <si>
+    <t>Cargas programadas</t>
+  </si>
+  <si>
+    <t>Cargas em trânsito</t>
+  </si>
+  <si>
+    <t>Cargas realizadas</t>
+  </si>
+  <si>
+    <t>Movimentação de produto</t>
+  </si>
+  <si>
+    <t>Descargas</t>
+  </si>
+  <si>
+    <t>Veículos</t>
+  </si>
+  <si>
+    <t>Em viagem</t>
+  </si>
+  <si>
+    <t>Sem programação</t>
+  </si>
+  <si>
+    <t>Chegam ao último destino</t>
+  </si>
+  <si>
+    <t>No estabelecimento</t>
   </si>
 </sst>
 </file>
@@ -996,8 +1035,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P4" sqref="P4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1014,50 +1053,50 @@
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="B4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>34</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>14</v>
       </c>
       <c r="J4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K4" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="L4" s="1" t="s">
         <v>16</v>
       </c>
       <c r="M4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="N4" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="N4" s="1" t="s">
+      <c r="O4" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -1073,18 +1112,18 @@
     </row>
     <row r="8" spans="1:15">
       <c r="A8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:15">
       <c r="B9" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -1105,7 +1144,7 @@
     </row>
     <row r="13" spans="1:15">
       <c r="A13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -1116,13 +1155,13 @@
     </row>
     <row r="15" spans="1:15">
       <c r="B15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1143,12 +1182,104 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4">
+        <v>45</v>
+      </c>
+      <c r="H4">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="D6">
+        <v>12</v>
+      </c>
+      <c r="H6">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="D7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="D8">
+        <v>33</v>
+      </c>
+      <c r="H8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="D9" t="s">
+        <v>43</v>
+      </c>
+      <c r="H9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="D10">
+        <v>50</v>
+      </c>
+      <c r="H10">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
--- a/viagem/doc/Consultas.xlsx
+++ b/viagem/doc/Consultas.xlsx
@@ -1,22 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rdometerco\Desktop\Rogerio - C\programacao\viagem\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20055" windowHeight="7950" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20520" windowHeight="7935"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
     <sheet name="Plan2" sheetId="2" r:id="rId2"/>
     <sheet name="Plan3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="132">
   <si>
     <t>Programado</t>
   </si>
@@ -60,128 +65,365 @@
     <t>Produto</t>
   </si>
   <si>
+    <t>Demanda</t>
+  </si>
+  <si>
+    <t>Estabelecimento</t>
+  </si>
+  <si>
+    <t>Atraso</t>
+  </si>
+  <si>
+    <t>Desacordo</t>
+  </si>
+  <si>
+    <t>Chegaram</t>
+  </si>
+  <si>
+    <t>Cocamar</t>
+  </si>
+  <si>
+    <t>Indústria</t>
+  </si>
+  <si>
+    <t>Paranaguá</t>
+  </si>
+  <si>
+    <t>AGTL</t>
+  </si>
+  <si>
+    <t>Transportador (ou tomador)</t>
+  </si>
+  <si>
+    <t>Entregas</t>
+  </si>
+  <si>
+    <t>Placa</t>
+  </si>
+  <si>
+    <t>Transport.</t>
+  </si>
+  <si>
+    <t>Operação</t>
+  </si>
+  <si>
+    <t>ABC1029</t>
+  </si>
+  <si>
+    <t>Coleta</t>
+  </si>
+  <si>
+    <t>Soja</t>
+  </si>
+  <si>
+    <t>AWC5862</t>
+  </si>
+  <si>
+    <t>Agotran</t>
+  </si>
+  <si>
+    <t>Milho</t>
+  </si>
+  <si>
+    <t>Seara</t>
+  </si>
+  <si>
+    <t>BWC9874</t>
+  </si>
+  <si>
+    <t>Entrega</t>
+  </si>
+  <si>
+    <t>Farelo</t>
+  </si>
+  <si>
+    <t>Coamo</t>
+  </si>
+  <si>
+    <t>Dt acordada</t>
+  </si>
+  <si>
+    <t>Dt chegada</t>
+  </si>
+  <si>
+    <t>Dt saída</t>
+  </si>
+  <si>
+    <t>Dt prevista</t>
+  </si>
+  <si>
+    <t>Operações</t>
+  </si>
+  <si>
+    <t>Criadas</t>
+  </si>
+  <si>
+    <t>Viagens</t>
+  </si>
+  <si>
+    <t>Aceitas</t>
+  </si>
+  <si>
+    <t>Recusadas</t>
+  </si>
+  <si>
+    <t>Realizadas</t>
+  </si>
+  <si>
+    <t>Abortadas</t>
+  </si>
+  <si>
+    <t>Pendentes</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Próximas operações</t>
+  </si>
+  <si>
+    <t>AWB5972</t>
+  </si>
+  <si>
+    <t>Carga</t>
+  </si>
+  <si>
+    <t>No Local</t>
+  </si>
+  <si>
+    <t>BWC3092</t>
+  </si>
+  <si>
+    <t>ATDL</t>
+  </si>
+  <si>
+    <t>Descarga</t>
+  </si>
+  <si>
+    <t>36 Tn</t>
+  </si>
+  <si>
+    <t>35 Tn</t>
+  </si>
+  <si>
+    <t>Prev. Chegada</t>
+  </si>
+  <si>
+    <t>AWA6048</t>
+  </si>
+  <si>
+    <t>Veículo</t>
+  </si>
+  <si>
+    <t>Estabelec.</t>
+  </si>
+  <si>
+    <t>Qtde</t>
+  </si>
+  <si>
+    <t>Nova viagem</t>
+  </si>
+  <si>
+    <t>AWB1770</t>
+  </si>
+  <si>
+    <t>AWC2840</t>
+  </si>
+  <si>
+    <t>José</t>
+  </si>
+  <si>
+    <t>Marcelo</t>
+  </si>
+  <si>
+    <t>Data/hora</t>
+  </si>
+  <si>
+    <t>Motorista</t>
+  </si>
+  <si>
+    <t>Evento</t>
+  </si>
+  <si>
+    <t>Viagem</t>
+  </si>
+  <si>
+    <t>Últimos eventos</t>
+  </si>
+  <si>
+    <t>Mario</t>
+  </si>
+  <si>
+    <t>Chegada</t>
+  </si>
+  <si>
+    <t>Aceite viagem</t>
+  </si>
+  <si>
+    <t>Araruna</t>
+  </si>
+  <si>
+    <t>Não</t>
+  </si>
+  <si>
+    <t>Origem</t>
+  </si>
+  <si>
+    <t>Destino</t>
+  </si>
+  <si>
+    <t>Saldo a embarcar</t>
+  </si>
+  <si>
+    <t>Cargas hoje</t>
+  </si>
+  <si>
+    <t>Pendentes total</t>
+  </si>
+  <si>
+    <t>Transportadores</t>
+  </si>
+  <si>
+    <t>Campo Mourão</t>
+  </si>
+  <si>
+    <t>2400 tn</t>
+  </si>
+  <si>
+    <t>1200 tn</t>
+  </si>
+  <si>
+    <t>Origem demanda</t>
+  </si>
+  <si>
+    <t>Destino demanda</t>
+  </si>
+  <si>
+    <t>Tomador</t>
+  </si>
+  <si>
     <t>Transportador</t>
   </si>
   <si>
-    <t>Demanda</t>
-  </si>
-  <si>
-    <t>Estabelecimento</t>
-  </si>
-  <si>
-    <t>Atraso</t>
-  </si>
-  <si>
-    <t>Desacordo</t>
-  </si>
-  <si>
-    <t>Chegaram</t>
-  </si>
-  <si>
-    <t>Cocamar</t>
-  </si>
-  <si>
-    <t>Indústria</t>
-  </si>
-  <si>
-    <t>Paranaguá</t>
-  </si>
-  <si>
-    <t>AGTL</t>
-  </si>
-  <si>
-    <t>Previsto</t>
-  </si>
-  <si>
-    <t>Data de chegada do veículo em relação ao acordado entre transportador e motorista</t>
-  </si>
-  <si>
-    <t>Data e hora de chegada do veículo em relação ao planejado pelo motorista</t>
-  </si>
-  <si>
-    <t>Atrasos</t>
-  </si>
-  <si>
-    <t>Próximas movimentações</t>
-  </si>
-  <si>
-    <t>Chegadas esperadas</t>
-  </si>
-  <si>
-    <t>Antecipações</t>
-  </si>
-  <si>
-    <t>Chegadas registradas</t>
-  </si>
-  <si>
-    <t>Viagem</t>
-  </si>
-  <si>
-    <t>Tomador</t>
-  </si>
-  <si>
-    <t>Placa</t>
-  </si>
-  <si>
-    <t>Motorista</t>
-  </si>
-  <si>
-    <t>Acordada</t>
-  </si>
-  <si>
-    <t>Prevista</t>
-  </si>
-  <si>
-    <t>Chegada</t>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Status operação</t>
+  </si>
+  <si>
+    <t>Status veículo</t>
+  </si>
+  <si>
+    <t>Filtros</t>
+  </si>
+  <si>
+    <t>Coagel</t>
+  </si>
+  <si>
+    <t>Farol</t>
+  </si>
+  <si>
+    <t>C vale</t>
+  </si>
+  <si>
+    <t>João</t>
+  </si>
+  <si>
+    <t>Amilton</t>
+  </si>
+  <si>
+    <t>Luis</t>
+  </si>
+  <si>
+    <t>Pendente</t>
+  </si>
+  <si>
+    <t>Realizada</t>
+  </si>
+  <si>
+    <t>Dt status</t>
+  </si>
+  <si>
+    <t>Localizacao</t>
+  </si>
+  <si>
+    <t>Localização</t>
+  </si>
+  <si>
+    <t>Data Local.</t>
+  </si>
+  <si>
+    <t>Luiziana</t>
+  </si>
+  <si>
+    <t>Janiópolis</t>
+  </si>
+  <si>
+    <t>Guarapuava</t>
+  </si>
+  <si>
+    <t>Data</t>
+  </si>
+  <si>
+    <t>Iniciada</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Status dos veículos</t>
+  </si>
+  <si>
+    <t>Id demanda</t>
+  </si>
+  <si>
+    <t>Movimentação em demandas</t>
+  </si>
+  <si>
+    <t>Agend amanhã</t>
+  </si>
+  <si>
+    <t>Agend futuro</t>
+  </si>
+  <si>
+    <t>Agend hj</t>
+  </si>
+  <si>
+    <t>Desc. Realiz.</t>
+  </si>
+  <si>
+    <t>Carg. Realiz.</t>
+  </si>
+  <si>
+    <t>Carg. Prog.</t>
   </si>
   <si>
     <t>Pontualidade</t>
   </si>
   <si>
-    <t>19 atrasos</t>
-  </si>
-  <si>
-    <t>120 pontuais</t>
-  </si>
-  <si>
-    <t>5 antecipações</t>
-  </si>
-  <si>
-    <t>Cargas programadas</t>
-  </si>
-  <si>
-    <t>Cargas em trânsito</t>
-  </si>
-  <si>
-    <t>Cargas realizadas</t>
-  </si>
-  <si>
-    <t>Movimentação de produto</t>
-  </si>
-  <si>
-    <t>Descargas</t>
-  </si>
-  <si>
-    <t>Veículos</t>
-  </si>
-  <si>
-    <t>Em viagem</t>
-  </si>
-  <si>
-    <t>Sem programação</t>
-  </si>
-  <si>
-    <t>Chegam ao último destino</t>
-  </si>
-  <si>
-    <t>No estabelecimento</t>
+    <t>Período</t>
+  </si>
+  <si>
+    <t>Tomador / transportador</t>
+  </si>
+  <si>
+    <t>Eficiência do trabalho</t>
+  </si>
+  <si>
+    <t>Data acordada</t>
+  </si>
+  <si>
+    <t>Data prevista</t>
+  </si>
+  <si>
+    <t>Data chegada</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -189,8 +431,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -205,7 +455,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -222,19 +478,44 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="22" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -281,7 +562,7 @@
     </a:clrScheme>
     <a:fontScheme name="Escritório">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -313,9 +594,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -347,6 +629,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Escritório">
@@ -522,22 +805,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="C1:J27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C1:AE67"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+    <sheetView tabSelected="1" topLeftCell="D30" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="S52" sqref="S52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="10.140625" customWidth="1"/>
     <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.28515625" customWidth="1"/>
+    <col min="15" max="15" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.5703125" customWidth="1"/>
+    <col min="17" max="17" width="13.42578125" customWidth="1"/>
+    <col min="18" max="18" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13" customWidth="1"/>
+    <col min="20" max="28" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:10">
+    <row r="1" spans="3:31" x14ac:dyDescent="0.25">
       <c r="C1" s="2" t="s">
         <v>13</v>
       </c>
@@ -547,8 +837,17 @@
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
-    </row>
-    <row r="2" spans="3:10">
+      <c r="L1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+    </row>
+    <row r="2" spans="3:31" x14ac:dyDescent="0.25">
       <c r="D2" t="s">
         <v>0</v>
       </c>
@@ -567,8 +866,26 @@
       <c r="I2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="3:10">
+      <c r="M2" t="s">
+        <v>0</v>
+      </c>
+      <c r="N2" t="s">
+        <v>1</v>
+      </c>
+      <c r="O2" t="s">
+        <v>2</v>
+      </c>
+      <c r="P2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>1</v>
+      </c>
+      <c r="R2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="3:31" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>5</v>
       </c>
@@ -591,8 +908,29 @@
         <v>4</v>
       </c>
       <c r="J3" s="1"/>
-    </row>
-    <row r="4" spans="3:10">
+      <c r="L3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M3" s="1">
+        <v>4</v>
+      </c>
+      <c r="N3" s="1">
+        <v>5</v>
+      </c>
+      <c r="O3" s="1">
+        <v>3</v>
+      </c>
+      <c r="P3" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>2</v>
+      </c>
+      <c r="R3" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="3:31" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>6</v>
       </c>
@@ -615,8 +953,29 @@
         <v>21</v>
       </c>
       <c r="J4" s="1"/>
-    </row>
-    <row r="5" spans="3:10">
+      <c r="L4" t="s">
+        <v>6</v>
+      </c>
+      <c r="M4" s="1">
+        <v>10</v>
+      </c>
+      <c r="N4" s="1">
+        <v>14</v>
+      </c>
+      <c r="O4" s="1">
+        <v>30</v>
+      </c>
+      <c r="P4" s="1">
+        <v>10</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>30</v>
+      </c>
+      <c r="R4" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="3:31" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>7</v>
       </c>
@@ -639,8 +998,29 @@
         <v>7</v>
       </c>
       <c r="J5" s="1"/>
-    </row>
-    <row r="6" spans="3:10">
+      <c r="L5" t="s">
+        <v>7</v>
+      </c>
+      <c r="M5" s="1">
+        <v>18</v>
+      </c>
+      <c r="N5" s="1">
+        <v>2</v>
+      </c>
+      <c r="O5" s="1">
+        <v>0</v>
+      </c>
+      <c r="P5" s="1">
+        <v>19</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>5</v>
+      </c>
+      <c r="R5" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="3:31" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>8</v>
       </c>
@@ -663,10 +1043,31 @@
         <v>2</v>
       </c>
       <c r="J6" s="1"/>
-    </row>
-    <row r="8" spans="3:10">
+      <c r="L6" t="s">
+        <v>8</v>
+      </c>
+      <c r="M6" s="1">
+        <v>0</v>
+      </c>
+      <c r="N6" s="1">
+        <v>11</v>
+      </c>
+      <c r="O6" s="1">
+        <v>9</v>
+      </c>
+      <c r="P6" s="1">
+        <v>7</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>10</v>
+      </c>
+      <c r="R6" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="3:31" x14ac:dyDescent="0.25">
       <c r="C8" s="2" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -674,8 +1075,11 @@
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
-    </row>
-    <row r="9" spans="3:10">
+      <c r="L8" s="12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="3:31" x14ac:dyDescent="0.25">
       <c r="D9" t="s">
         <v>0</v>
       </c>
@@ -694,8 +1098,11 @@
       <c r="I9" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="3:10">
+      <c r="L9" s="12" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="10" spans="3:31" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>9</v>
       </c>
@@ -718,8 +1125,26 @@
         <v>4</v>
       </c>
       <c r="J10" s="1"/>
-    </row>
-    <row r="11" spans="3:10">
+      <c r="L10" t="s">
+        <v>15</v>
+      </c>
+      <c r="N10" t="s">
+        <v>90</v>
+      </c>
+      <c r="P10" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>93</v>
+      </c>
+      <c r="S10" t="s">
+        <v>95</v>
+      </c>
+      <c r="U10" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="11" spans="3:31" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>10</v>
       </c>
@@ -742,8 +1167,26 @@
         <v>21</v>
       </c>
       <c r="J11" s="1"/>
-    </row>
-    <row r="12" spans="3:10">
+      <c r="L11" t="s">
+        <v>27</v>
+      </c>
+      <c r="N11" t="s">
+        <v>91</v>
+      </c>
+      <c r="P11" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>63</v>
+      </c>
+      <c r="S11" t="s">
+        <v>42</v>
+      </c>
+      <c r="U11" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="12" spans="3:31" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>11</v>
       </c>
@@ -767,7 +1210,7 @@
       </c>
       <c r="J12" s="1"/>
     </row>
-    <row r="13" spans="3:10">
+    <row r="13" spans="3:31" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>12</v>
       </c>
@@ -791,9 +1234,71 @@
       </c>
       <c r="J13" s="1"/>
     </row>
-    <row r="15" spans="3:10">
+    <row r="14" spans="3:31" x14ac:dyDescent="0.25">
+      <c r="L14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O14" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="P14" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q14" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="R14" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="S14" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="T14" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="U14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="V14" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="W14" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="X14" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y14" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z14" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA14" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB14" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD14" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="AE14" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="15" spans="3:31" x14ac:dyDescent="0.25">
       <c r="C15" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
@@ -801,8 +1306,62 @@
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
-    </row>
-    <row r="16" spans="3:10">
+      <c r="L15" t="s">
+        <v>21</v>
+      </c>
+      <c r="M15" t="s">
+        <v>38</v>
+      </c>
+      <c r="N15" t="s">
+        <v>28</v>
+      </c>
+      <c r="O15">
+        <v>320</v>
+      </c>
+      <c r="P15" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>42829</v>
+      </c>
+      <c r="R15" t="s">
+        <v>101</v>
+      </c>
+      <c r="S15" t="s">
+        <v>10</v>
+      </c>
+      <c r="T15" t="s">
+        <v>29</v>
+      </c>
+      <c r="U15" t="s">
+        <v>30</v>
+      </c>
+      <c r="V15" s="1">
+        <v>35</v>
+      </c>
+      <c r="W15" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="X15" s="3">
+        <v>42829</v>
+      </c>
+      <c r="Y15" s="3">
+        <v>42829</v>
+      </c>
+      <c r="Z15" s="3">
+        <v>42830</v>
+      </c>
+      <c r="AC15" s="1">
+        <v>564</v>
+      </c>
+      <c r="AD15" t="s">
+        <v>21</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="16" spans="3:31" x14ac:dyDescent="0.25">
       <c r="D16" t="s">
         <v>0</v>
       </c>
@@ -821,8 +1380,68 @@
       <c r="I16" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="17" spans="3:9">
+      <c r="L16" t="s">
+        <v>34</v>
+      </c>
+      <c r="M16" t="s">
+        <v>38</v>
+      </c>
+      <c r="N16" t="s">
+        <v>31</v>
+      </c>
+      <c r="O16">
+        <v>390</v>
+      </c>
+      <c r="P16" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q16" s="3">
+        <v>42827</v>
+      </c>
+      <c r="R16" t="s">
+        <v>69</v>
+      </c>
+      <c r="S16" t="s">
+        <v>32</v>
+      </c>
+      <c r="T16" t="s">
+        <v>29</v>
+      </c>
+      <c r="U16" t="s">
+        <v>33</v>
+      </c>
+      <c r="V16" s="1">
+        <v>36</v>
+      </c>
+      <c r="W16" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="X16" s="3">
+        <v>42827</v>
+      </c>
+      <c r="Y16" s="3">
+        <v>42827</v>
+      </c>
+      <c r="Z16" s="3">
+        <v>42826</v>
+      </c>
+      <c r="AA16" s="3">
+        <v>42827</v>
+      </c>
+      <c r="AB16" s="3">
+        <v>42827</v>
+      </c>
+      <c r="AC16" s="1">
+        <v>5433</v>
+      </c>
+      <c r="AD16" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.25">
       <c r="C17">
         <v>545</v>
       </c>
@@ -844,8 +1463,65 @@
       <c r="I17" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="18" spans="3:9">
+      <c r="L17" t="s">
+        <v>19</v>
+      </c>
+      <c r="M17" t="s">
+        <v>100</v>
+      </c>
+      <c r="N17" t="s">
+        <v>35</v>
+      </c>
+      <c r="O17">
+        <v>12323</v>
+      </c>
+      <c r="P17" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>42829</v>
+      </c>
+      <c r="R17" t="s">
+        <v>102</v>
+      </c>
+      <c r="S17" t="s">
+        <v>11</v>
+      </c>
+      <c r="T17" t="s">
+        <v>36</v>
+      </c>
+      <c r="U17" t="s">
+        <v>37</v>
+      </c>
+      <c r="V17" s="1">
+        <v>35</v>
+      </c>
+      <c r="W17" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="X17" s="3">
+        <v>42829</v>
+      </c>
+      <c r="Y17" s="3">
+        <v>42829</v>
+      </c>
+      <c r="Z17" s="3">
+        <v>42830</v>
+      </c>
+      <c r="AA17" s="3">
+        <v>42831</v>
+      </c>
+      <c r="AC17" s="1">
+        <v>5743</v>
+      </c>
+      <c r="AD17" t="s">
+        <v>38</v>
+      </c>
+      <c r="AE17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="3:31" x14ac:dyDescent="0.25">
       <c r="C18">
         <v>30430</v>
       </c>
@@ -867,8 +1543,62 @@
       <c r="I18" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="19" spans="3:9">
+      <c r="L18" t="s">
+        <v>21</v>
+      </c>
+      <c r="M18" t="s">
+        <v>100</v>
+      </c>
+      <c r="N18" t="s">
+        <v>28</v>
+      </c>
+      <c r="O18">
+        <v>23123</v>
+      </c>
+      <c r="P18" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>42827</v>
+      </c>
+      <c r="R18" t="s">
+        <v>103</v>
+      </c>
+      <c r="S18" t="s">
+        <v>10</v>
+      </c>
+      <c r="T18" t="s">
+        <v>29</v>
+      </c>
+      <c r="U18" t="s">
+        <v>30</v>
+      </c>
+      <c r="V18" s="1">
+        <v>35</v>
+      </c>
+      <c r="W18" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="X18" s="3">
+        <v>42827</v>
+      </c>
+      <c r="Y18" s="3">
+        <v>42827</v>
+      </c>
+      <c r="Z18" s="3"/>
+      <c r="AA18" s="3"/>
+      <c r="AB18" s="3"/>
+      <c r="AC18" s="1">
+        <v>2343</v>
+      </c>
+      <c r="AD18" t="s">
+        <v>21</v>
+      </c>
+      <c r="AE18" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="19" spans="3:31" x14ac:dyDescent="0.25">
       <c r="C19">
         <v>90201</v>
       </c>
@@ -890,8 +1620,9 @@
       <c r="I19" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="20" spans="3:9">
+      <c r="S19" s="1"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.25">
       <c r="C20">
         <v>6712</v>
       </c>
@@ -913,10 +1644,17 @@
       <c r="I20" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="22" spans="3:9">
+      <c r="S20" s="1"/>
+    </row>
+    <row r="21" spans="3:31" x14ac:dyDescent="0.25">
+      <c r="L21" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="S21" s="1"/>
+    </row>
+    <row r="22" spans="3:31" x14ac:dyDescent="0.25">
       <c r="C22" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
@@ -924,27 +1662,33 @@
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
-    </row>
-    <row r="23" spans="3:9">
+      <c r="L22" t="s">
+        <v>25</v>
+      </c>
+      <c r="M22" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="23" spans="3:31" x14ac:dyDescent="0.25">
       <c r="D23" t="s">
         <v>0</v>
       </c>
       <c r="E23" t="s">
+        <v>16</v>
+      </c>
+      <c r="F23" t="s">
         <v>17</v>
       </c>
-      <c r="F23" t="s">
+      <c r="G23" t="s">
         <v>18</v>
-      </c>
-      <c r="G23" t="s">
-        <v>19</v>
       </c>
       <c r="H23" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="3:9">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D24" s="1">
         <v>4</v>
@@ -962,10 +1706,34 @@
         <v>2</v>
       </c>
       <c r="I24" s="1"/>
-    </row>
-    <row r="25" spans="3:9">
+      <c r="L24" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M24" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="N24" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="O24" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="P24" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q24" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="R24" s="2"/>
+      <c r="S24" s="2"/>
+      <c r="T24" s="2"/>
+      <c r="U24" s="2"/>
+      <c r="V24" s="2"/>
+      <c r="W24" s="2"/>
+    </row>
+    <row r="25" spans="3:31" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D25" s="1">
         <v>10</v>
@@ -983,10 +1751,28 @@
         <v>30</v>
       </c>
       <c r="I25" s="1"/>
-    </row>
-    <row r="26" spans="3:9">
+      <c r="L25" t="s">
+        <v>28</v>
+      </c>
+      <c r="M25" t="s">
+        <v>101</v>
+      </c>
+      <c r="N25" t="s">
+        <v>110</v>
+      </c>
+      <c r="O25" s="3">
+        <v>42829</v>
+      </c>
+      <c r="P25" s="1">
+        <v>1506</v>
+      </c>
+      <c r="Q25" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D26" s="1">
         <v>18</v>
@@ -1004,10 +1790,28 @@
         <v>5</v>
       </c>
       <c r="I26" s="1"/>
-    </row>
-    <row r="27" spans="3:9">
+      <c r="L26" t="s">
+        <v>31</v>
+      </c>
+      <c r="M26" t="s">
+        <v>69</v>
+      </c>
+      <c r="N26" t="s">
+        <v>99</v>
+      </c>
+      <c r="O26" s="3">
+        <v>42827</v>
+      </c>
+      <c r="P26" s="1">
+        <v>4021</v>
+      </c>
+      <c r="Q26" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="27" spans="3:31" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D27" s="1">
         <v>0</v>
@@ -1025,259 +1829,884 @@
         <v>10</v>
       </c>
       <c r="I27" s="1"/>
+      <c r="L27" t="s">
+        <v>35</v>
+      </c>
+      <c r="M27" t="s">
+        <v>102</v>
+      </c>
+      <c r="N27" t="s">
+        <v>111</v>
+      </c>
+      <c r="O27" s="3">
+        <v>42829</v>
+      </c>
+      <c r="P27" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q27" s="1"/>
+    </row>
+    <row r="28" spans="3:31" x14ac:dyDescent="0.25">
+      <c r="L28" t="s">
+        <v>28</v>
+      </c>
+      <c r="M28" t="s">
+        <v>103</v>
+      </c>
+      <c r="N28" t="s">
+        <v>112</v>
+      </c>
+      <c r="O28" s="3">
+        <v>42827</v>
+      </c>
+      <c r="P28" s="1">
+        <v>35369</v>
+      </c>
+      <c r="Q28" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.25">
+      <c r="L31" s="12" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.25">
+      <c r="L32" t="s">
+        <v>54</v>
+      </c>
+      <c r="M32" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="34" spans="12:22" x14ac:dyDescent="0.25">
+      <c r="L34" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="M34" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="N34" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="O34" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="P34" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q34" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="R34" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="S34" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="T34" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="U34" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="V34" s="2"/>
+    </row>
+    <row r="35" spans="12:22" x14ac:dyDescent="0.25">
+      <c r="L35" s="1">
+        <v>564</v>
+      </c>
+      <c r="M35" t="s">
+        <v>21</v>
+      </c>
+      <c r="N35" t="s">
+        <v>79</v>
+      </c>
+      <c r="O35" t="s">
+        <v>30</v>
+      </c>
+      <c r="P35">
+        <v>525</v>
+      </c>
+      <c r="Q35" s="1">
+        <v>5</v>
+      </c>
+      <c r="R35" s="1">
+        <v>1</v>
+      </c>
+      <c r="S35" s="1">
+        <v>3</v>
+      </c>
+      <c r="T35" s="1">
+        <v>6</v>
+      </c>
+      <c r="U35" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="12:22" x14ac:dyDescent="0.25">
+      <c r="L36" s="1">
+        <v>5433</v>
+      </c>
+      <c r="M36" t="s">
+        <v>34</v>
+      </c>
+      <c r="N36" t="s">
+        <v>98</v>
+      </c>
+      <c r="O36" t="s">
+        <v>33</v>
+      </c>
+      <c r="P36">
+        <v>6600</v>
+      </c>
+      <c r="Q36" s="1">
+        <v>12</v>
+      </c>
+      <c r="R36" s="1">
+        <v>4</v>
+      </c>
+      <c r="S36" s="1">
+        <v>1</v>
+      </c>
+      <c r="T36" s="1">
+        <v>2</v>
+      </c>
+      <c r="U36" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="12:22" x14ac:dyDescent="0.25">
+      <c r="L37" s="1">
+        <v>5743</v>
+      </c>
+      <c r="M37" t="s">
+        <v>38</v>
+      </c>
+      <c r="N37" t="s">
+        <v>19</v>
+      </c>
+      <c r="O37" t="s">
+        <v>37</v>
+      </c>
+      <c r="P37">
+        <v>1500</v>
+      </c>
+      <c r="Q37" s="1">
+        <v>3</v>
+      </c>
+      <c r="R37" s="1">
+        <v>2</v>
+      </c>
+      <c r="S37" s="1">
+        <v>5</v>
+      </c>
+      <c r="T37" s="1">
+        <v>1</v>
+      </c>
+      <c r="U37" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="12:22" x14ac:dyDescent="0.25">
+      <c r="L38" s="1">
+        <v>2343</v>
+      </c>
+      <c r="M38" t="s">
+        <v>21</v>
+      </c>
+      <c r="N38" t="s">
+        <v>99</v>
+      </c>
+      <c r="O38" t="s">
+        <v>30</v>
+      </c>
+      <c r="P38">
+        <v>3000</v>
+      </c>
+      <c r="Q38" s="1">
+        <v>8</v>
+      </c>
+      <c r="R38" s="1">
+        <v>3</v>
+      </c>
+      <c r="S38" s="1">
+        <v>6</v>
+      </c>
+      <c r="T38" s="1">
+        <v>0</v>
+      </c>
+      <c r="U38" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="12:22" x14ac:dyDescent="0.25">
+      <c r="L41" s="12" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="42" spans="12:22" x14ac:dyDescent="0.25">
+      <c r="L42" t="s">
+        <v>126</v>
+      </c>
+      <c r="M42" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="44" spans="12:22" x14ac:dyDescent="0.25">
+      <c r="L44" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="M44" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="N44" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="O44" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="P44" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q44" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="49" spans="12:19" x14ac:dyDescent="0.25">
+      <c r="L49" s="12" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="52" spans="12:19" x14ac:dyDescent="0.25">
+      <c r="L52" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M52" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="N52" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="O52" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="P52" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q52" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="R52" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="S52" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="59" spans="12:19" x14ac:dyDescent="0.25">
+      <c r="L59" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="60" spans="12:19" x14ac:dyDescent="0.25">
+      <c r="L60" t="s">
+        <v>44</v>
+      </c>
+      <c r="M60">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="61" spans="12:19" x14ac:dyDescent="0.25">
+      <c r="L61" t="s">
+        <v>46</v>
+      </c>
+      <c r="M61">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="62" spans="12:19" x14ac:dyDescent="0.25">
+      <c r="L62" t="s">
+        <v>47</v>
+      </c>
+      <c r="M62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="12:19" x14ac:dyDescent="0.25">
+      <c r="L64" t="s">
+        <v>43</v>
+      </c>
+      <c r="M64" t="s">
+        <v>51</v>
+      </c>
+      <c r="N64" t="s">
+        <v>16</v>
+      </c>
+      <c r="O64" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="65" spans="12:15" x14ac:dyDescent="0.25">
+      <c r="L65" t="s">
+        <v>50</v>
+      </c>
+      <c r="M65">
+        <v>30</v>
+      </c>
+      <c r="N65">
+        <v>2</v>
+      </c>
+      <c r="O65">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" spans="12:15" x14ac:dyDescent="0.25">
+      <c r="L66" t="s">
+        <v>48</v>
+      </c>
+      <c r="M66">
+        <v>20</v>
+      </c>
+      <c r="N66">
+        <v>5</v>
+      </c>
+      <c r="O66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="12:15" x14ac:dyDescent="0.25">
+      <c r="L67" t="s">
+        <v>49</v>
+      </c>
+      <c r="M67">
+        <v>0</v>
+      </c>
+      <c r="N67">
+        <v>0</v>
+      </c>
+      <c r="O67">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19" customWidth="1"/>
-    <col min="3" max="3" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.7109375" customWidth="1"/>
-    <col min="12" max="12" width="16" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.5703125" customWidth="1"/>
+    <col min="9" max="9" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
-      <c r="A1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
-      <c r="A3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
-      <c r="B4" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" s="1" t="s">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="F3" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="L3" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="M3" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="N3" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="O3" s="11"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F4" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H4" s="1" t="s">
+      <c r="G4" t="s">
+        <v>60</v>
+      </c>
+      <c r="I4" s="6">
+        <v>42839.666666666664</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="K4" s="10">
+        <v>525</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="N4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="O4" s="11"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E5" t="s">
+        <v>58</v>
+      </c>
+      <c r="F5" t="s">
         <v>33</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="G5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="B6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" t="s">
+        <v>54</v>
+      </c>
+      <c r="F6" t="s">
+        <v>37</v>
+      </c>
+      <c r="G6" t="s">
+        <v>60</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="J6" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="K6" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="L6" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="M6" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="N6" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="O6" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="P6" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="B7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I7" s="6">
+        <v>42839.663194444445</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="K7" s="10">
+        <v>876</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="M7" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="N7" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="O7" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="P7" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="B8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" t="s">
+        <v>54</v>
+      </c>
+      <c r="F8" t="s">
+        <v>37</v>
+      </c>
+      <c r="G8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="B9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" t="s">
+        <v>57</v>
+      </c>
+      <c r="E9" t="s">
+        <v>58</v>
+      </c>
+      <c r="F9" t="s">
+        <v>33</v>
+      </c>
+      <c r="G9" t="s">
+        <v>59</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="J9" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="K9" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="L9" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="M9" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="N9" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="O9" s="11"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="I10" s="6">
+        <v>42839.666666666664</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="K10" s="10">
+        <v>525</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="M10" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="N10" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="O10" s="11"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="I12" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="J12" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="K12" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="L12" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="M12" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="N12" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="O12" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="J4" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
-      <c r="B5" s="1">
-        <v>480</v>
-      </c>
-      <c r="C5" s="1">
+      <c r="P12" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q12" s="8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="I13" s="6">
+        <v>42839.63958333333</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="K13" s="10">
+        <v>638</v>
+      </c>
+      <c r="L13" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="M13" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="N13" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="O13" s="5">
+        <v>302</v>
+      </c>
+      <c r="P13" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q13" s="5" t="s">
         <v>21</v>
-      </c>
-      <c r="D5" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
-      <c r="A8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
-      <c r="B9" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
-      <c r="B10" s="1">
-        <v>480</v>
-      </c>
-      <c r="C10" s="1">
-        <v>19</v>
-      </c>
-      <c r="D10" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-    </row>
-    <row r="13" spans="1:15">
-      <c r="A13" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
-      <c r="C14" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" s="3"/>
-    </row>
-    <row r="15" spans="1:15">
-      <c r="B15" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
-      <c r="B16" s="1">
-        <v>350</v>
-      </c>
-      <c r="C16" s="1">
-        <v>35</v>
-      </c>
-      <c r="D16" s="1">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" customWidth="1"/>
+    <col min="7" max="7" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.85546875" customWidth="1"/>
+    <col min="9" max="9" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D1" t="s">
-        <v>46</v>
-      </c>
-      <c r="H1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" t="s">
-        <v>40</v>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>81</v>
       </c>
       <c r="D3" t="s">
-        <v>45</v>
+        <v>82</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G3" t="s">
+        <v>83</v>
       </c>
       <c r="H3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D4">
-        <v>45</v>
-      </c>
-      <c r="H4">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D5" t="s">
-        <v>44</v>
-      </c>
-      <c r="H5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="D6">
-        <v>12</v>
-      </c>
-      <c r="H6">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="D7" t="s">
-        <v>47</v>
-      </c>
-      <c r="H7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="D8">
+        <v>84</v>
+      </c>
+      <c r="I3" t="s">
+        <v>85</v>
+      </c>
+      <c r="J3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B4" s="1">
+        <v>4343</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H4" s="1">
         <v>33</v>
       </c>
-      <c r="H8">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="D9" t="s">
-        <v>43</v>
-      </c>
-      <c r="H9" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="D10">
-        <v>50</v>
-      </c>
-      <c r="H10">
-        <v>29</v>
-      </c>
+      <c r="I4" s="1">
+        <v>18</v>
+      </c>
+      <c r="J4" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/viagem/doc/Consultas.xlsx
+++ b/viagem/doc/Consultas.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rdometerco\Desktop\Rogerio - C\programacao\viagem\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20520" windowHeight="7935"/>
   </bookViews>
@@ -16,12 +11,12 @@
     <sheet name="Plan2" sheetId="2" r:id="rId2"/>
     <sheet name="Plan3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="138">
   <si>
     <t>Programado</t>
   </si>
@@ -417,13 +412,31 @@
   </si>
   <si>
     <t>Data chegada</t>
+  </si>
+  <si>
+    <t>Iniciadas</t>
+  </si>
+  <si>
+    <t>Não iniciadas</t>
+  </si>
+  <si>
+    <t>Veículos</t>
+  </si>
+  <si>
+    <t>Em viagem</t>
+  </si>
+  <si>
+    <t>Com atraso</t>
+  </si>
+  <si>
+    <t>Sem viagem</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -562,7 +575,7 @@
     </a:clrScheme>
     <a:fontScheme name="Escritório">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -594,10 +607,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -629,7 +641,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Escritório">
@@ -805,14 +816,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="C1:AE67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D30" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="S52" sqref="S52"/>
+    <sheetView tabSelected="1" topLeftCell="D23" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" width="10.140625" customWidth="1"/>
     <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
@@ -827,7 +838,7 @@
     <col min="20" max="28" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="1" spans="3:31">
       <c r="C1" s="2" t="s">
         <v>13</v>
       </c>
@@ -847,7 +858,7 @@
       <c r="Q1" s="2"/>
       <c r="R1" s="2"/>
     </row>
-    <row r="2" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="2" spans="3:31">
       <c r="D2" t="s">
         <v>0</v>
       </c>
@@ -885,7 +896,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:31">
       <c r="C3" t="s">
         <v>5</v>
       </c>
@@ -930,7 +941,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:31">
       <c r="C4" t="s">
         <v>6</v>
       </c>
@@ -975,7 +986,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:31">
       <c r="C5" t="s">
         <v>7</v>
       </c>
@@ -1020,7 +1031,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:31">
       <c r="C6" t="s">
         <v>8</v>
       </c>
@@ -1065,7 +1076,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:31">
       <c r="C8" s="2" t="s">
         <v>23</v>
       </c>
@@ -1079,7 +1090,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:31">
       <c r="D9" t="s">
         <v>0</v>
       </c>
@@ -1102,7 +1113,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="10" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:31">
       <c r="C10" t="s">
         <v>9</v>
       </c>
@@ -1144,7 +1155,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="11" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:31">
       <c r="C11" t="s">
         <v>10</v>
       </c>
@@ -1186,7 +1197,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="12" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:31">
       <c r="C12" t="s">
         <v>11</v>
       </c>
@@ -1210,7 +1221,7 @@
       </c>
       <c r="J12" s="1"/>
     </row>
-    <row r="13" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:31">
       <c r="C13" t="s">
         <v>12</v>
       </c>
@@ -1234,7 +1245,7 @@
       </c>
       <c r="J13" s="1"/>
     </row>
-    <row r="14" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:31">
       <c r="L14" s="2" t="s">
         <v>15</v>
       </c>
@@ -1296,7 +1307,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="15" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:31">
       <c r="C15" s="2" t="s">
         <v>14</v>
       </c>
@@ -1361,7 +1372,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="16" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:31">
       <c r="D16" t="s">
         <v>0</v>
       </c>
@@ -1441,7 +1452,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="17" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:31">
       <c r="C17">
         <v>545</v>
       </c>
@@ -1521,7 +1532,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:31">
       <c r="C18">
         <v>30430</v>
       </c>
@@ -1598,7 +1609,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="19" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:31">
       <c r="C19">
         <v>90201</v>
       </c>
@@ -1622,7 +1633,7 @@
       </c>
       <c r="S19" s="1"/>
     </row>
-    <row r="20" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:31">
       <c r="C20">
         <v>6712</v>
       </c>
@@ -1646,13 +1657,13 @@
       </c>
       <c r="S20" s="1"/>
     </row>
-    <row r="21" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:31">
       <c r="L21" s="12" t="s">
         <v>116</v>
       </c>
       <c r="S21" s="1"/>
     </row>
-    <row r="22" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:31">
       <c r="C22" s="2" t="s">
         <v>15</v>
       </c>
@@ -1669,7 +1680,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="23" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:31">
       <c r="D23" t="s">
         <v>0</v>
       </c>
@@ -1686,7 +1697,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:31">
       <c r="C24" t="s">
         <v>19</v>
       </c>
@@ -1731,7 +1742,7 @@
       <c r="V24" s="2"/>
       <c r="W24" s="2"/>
     </row>
-    <row r="25" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:31">
       <c r="C25" t="s">
         <v>20</v>
       </c>
@@ -1770,7 +1781,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="26" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:31">
       <c r="C26" t="s">
         <v>21</v>
       </c>
@@ -1809,7 +1820,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="27" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:31">
       <c r="C27" t="s">
         <v>22</v>
       </c>
@@ -1846,7 +1857,7 @@
       </c>
       <c r="Q27" s="1"/>
     </row>
-    <row r="28" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:31">
       <c r="L28" t="s">
         <v>28</v>
       </c>
@@ -1866,12 +1877,12 @@
         <v>114</v>
       </c>
     </row>
-    <row r="31" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:31">
       <c r="L31" s="12" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="32" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:31">
       <c r="L32" t="s">
         <v>54</v>
       </c>
@@ -1879,7 +1890,15 @@
         <v>58</v>
       </c>
     </row>
-    <row r="34" spans="12:22" x14ac:dyDescent="0.25">
+    <row r="33" spans="4:22">
+      <c r="D33" s="12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="34" spans="4:22">
+      <c r="D34" t="s">
+        <v>44</v>
+      </c>
       <c r="L34" s="2" t="s">
         <v>14</v>
       </c>
@@ -1912,7 +1931,10 @@
       </c>
       <c r="V34" s="2"/>
     </row>
-    <row r="35" spans="12:22" x14ac:dyDescent="0.25">
+    <row r="35" spans="4:22">
+      <c r="D35" t="s">
+        <v>132</v>
+      </c>
       <c r="L35" s="1">
         <v>564</v>
       </c>
@@ -1944,7 +1966,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="12:22" x14ac:dyDescent="0.25">
+    <row r="36" spans="4:22">
+      <c r="D36" t="s">
+        <v>133</v>
+      </c>
       <c r="L36" s="1">
         <v>5433</v>
       </c>
@@ -1976,7 +2001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="12:22" x14ac:dyDescent="0.25">
+    <row r="37" spans="4:22">
       <c r="L37" s="1">
         <v>5743</v>
       </c>
@@ -2008,7 +2033,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="12:22" x14ac:dyDescent="0.25">
+    <row r="38" spans="4:22">
+      <c r="D38" s="12" t="s">
+        <v>134</v>
+      </c>
       <c r="L38" s="1">
         <v>2343</v>
       </c>
@@ -2040,12 +2068,28 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="12:22" x14ac:dyDescent="0.25">
+    <row r="39" spans="4:22">
+      <c r="D39" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="40" spans="4:22">
+      <c r="D40" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="41" spans="4:22">
+      <c r="D41" t="s">
+        <v>137</v>
+      </c>
       <c r="L41" s="12" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="42" spans="12:22" x14ac:dyDescent="0.25">
+    <row r="42" spans="4:22">
+      <c r="D42" t="s">
+        <v>1</v>
+      </c>
       <c r="L42" t="s">
         <v>126</v>
       </c>
@@ -2053,7 +2097,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="44" spans="12:22" x14ac:dyDescent="0.25">
+    <row r="44" spans="4:22">
       <c r="L44" s="2" t="s">
         <v>113</v>
       </c>
@@ -2073,12 +2117,12 @@
         <v>122</v>
       </c>
     </row>
-    <row r="49" spans="12:19" x14ac:dyDescent="0.25">
+    <row r="49" spans="12:19">
       <c r="L49" s="12" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="52" spans="12:19" x14ac:dyDescent="0.25">
+    <row r="52" spans="12:19">
       <c r="L52" s="2" t="s">
         <v>15</v>
       </c>
@@ -2104,12 +2148,12 @@
         <v>131</v>
       </c>
     </row>
-    <row r="59" spans="12:19" x14ac:dyDescent="0.25">
+    <row r="59" spans="12:19">
       <c r="L59" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="60" spans="12:19" x14ac:dyDescent="0.25">
+    <row r="60" spans="12:19">
       <c r="L60" t="s">
         <v>44</v>
       </c>
@@ -2117,7 +2161,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="61" spans="12:19" x14ac:dyDescent="0.25">
+    <row r="61" spans="12:19">
       <c r="L61" t="s">
         <v>46</v>
       </c>
@@ -2125,7 +2169,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="62" spans="12:19" x14ac:dyDescent="0.25">
+    <row r="62" spans="12:19">
       <c r="L62" t="s">
         <v>47</v>
       </c>
@@ -2133,7 +2177,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="12:19" x14ac:dyDescent="0.25">
+    <row r="64" spans="12:19">
       <c r="L64" t="s">
         <v>43</v>
       </c>
@@ -2147,7 +2191,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="65" spans="12:15" x14ac:dyDescent="0.25">
+    <row r="65" spans="12:15">
       <c r="L65" t="s">
         <v>50</v>
       </c>
@@ -2161,7 +2205,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="66" spans="12:15" x14ac:dyDescent="0.25">
+    <row r="66" spans="12:15">
       <c r="L66" t="s">
         <v>48</v>
       </c>
@@ -2175,7 +2219,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="12:15" x14ac:dyDescent="0.25">
+    <row r="67" spans="12:15">
       <c r="L67" t="s">
         <v>49</v>
       </c>
@@ -2191,26 +2235,26 @@
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="15.5703125" customWidth="1"/>
     <col min="9" max="9" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17">
       <c r="A1" s="12" t="s">
         <v>52</v>
       </c>
@@ -2218,7 +2262,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17">
       <c r="A3" s="8" t="s">
         <v>61</v>
       </c>
@@ -2260,7 +2304,7 @@
       </c>
       <c r="O3" s="11"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17">
       <c r="A4" s="1" t="s">
         <v>55</v>
       </c>
@@ -2302,7 +2346,7 @@
       </c>
       <c r="O4" s="11"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17">
       <c r="A5" s="1" t="s">
         <v>55</v>
       </c>
@@ -2325,7 +2369,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17">
       <c r="A6" s="4">
         <v>0.66666666666666663</v>
       </c>
@@ -2372,7 +2416,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17">
       <c r="A7" s="4">
         <v>0.66666666666666663</v>
       </c>
@@ -2419,7 +2463,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17">
       <c r="A8" s="4">
         <v>0.70833333333333337</v>
       </c>
@@ -2442,7 +2486,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17">
       <c r="A9" s="4">
         <v>0.72916666666666663</v>
       </c>
@@ -2484,7 +2528,7 @@
       </c>
       <c r="O9" s="11"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17">
       <c r="I10" s="6">
         <v>42839.666666666664</v>
       </c>
@@ -2505,7 +2549,7 @@
       </c>
       <c r="O10" s="11"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17">
       <c r="I12" s="8" t="s">
         <v>71</v>
       </c>
@@ -2534,7 +2578,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17">
       <c r="I13" s="6">
         <v>42839.63958333333</v>
       </c>
@@ -2570,14 +2614,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B3:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" width="14.5703125" customWidth="1"/>
     <col min="4" max="4" width="13.140625" customWidth="1"/>
@@ -2587,7 +2631,7 @@
     <col min="10" max="10" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:10">
       <c r="B3" t="s">
         <v>14</v>
       </c>
@@ -2616,7 +2660,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:10">
       <c r="B4" s="1">
         <v>4343</v>
       </c>
@@ -2645,63 +2689,63 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:10">
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:10">
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:10">
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:10">
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:10">
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:10">
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:10">
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:10">
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:10">
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
